--- a/activity/SIGE_P4.xlsx
+++ b/activity/SIGE_P4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F997EE-40DF-4929-BB46-F8631B5050BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585B2ACA-4A91-419A-86ED-4719B5DD9F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,8 +685,26 @@
     </r>
   </si>
   <si>
-    <t>Calificación Avance P4 - Proyecto final
-Módulo IV – Bases de datos espaciales GDB para gestión del OT</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Módulo IV – Bases de datos espaciales GDB para gestión del OT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Calificación Avance P4 - Proyecto final</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1022,6 +1040,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1030,12 +1054,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1324,7 +1342,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1344,21 +1362,21 @@
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
@@ -1378,7 +1396,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
